--- a/simulacion_MSFT.xlsx
+++ b/simulacion_MSFT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>501.5299987792969</v>
+      </c>
+      <c r="C2" t="n">
         <v>504.5599975585938</v>
       </c>
-      <c r="C2" t="n">
-        <v>208.4629180022873</v>
-      </c>
       <c r="D2" t="n">
-        <v>215.1034331498697</v>
+        <v>509.3401283152386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>501.0899963378906</v>
+      </c>
+      <c r="C3" t="n">
         <v>501.5299987792969</v>
       </c>
-      <c r="C3" t="n">
-        <v>513.2193343836957</v>
-      </c>
       <c r="D3" t="n">
-        <v>488.8529496291826</v>
+        <v>501.2669041153314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>501.4700012207031</v>
+      </c>
+      <c r="C4" t="n">
         <v>501.0899963378906</v>
       </c>
-      <c r="C4" t="n">
-        <v>513.690536584361</v>
-      </c>
       <c r="D4" t="n">
-        <v>498.9323026317071</v>
+        <v>485.4786069838178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>502.7950134277344</v>
+      </c>
+      <c r="C5" t="n">
         <v>501.4700012207031</v>
       </c>
-      <c r="C5" t="n">
-        <v>494.3726419151888</v>
-      </c>
       <c r="D5" t="n">
-        <v>516.7705182974662</v>
+        <v>490.8370997962443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>502.3200073242188</v>
+      </c>
+      <c r="C6" t="n">
         <v>502.7950134277344</v>
       </c>
-      <c r="C6" t="n">
-        <v>512.7689073254082</v>
-      </c>
       <c r="D6" t="n">
-        <v>497.6754219238413</v>
+        <v>507.9550117837441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>503.4800109863281</v>
+      </c>
+      <c r="C7" t="n">
         <v>502.3200073242188</v>
       </c>
-      <c r="C7" t="n">
-        <v>495.8852180286233</v>
-      </c>
       <c r="D7" t="n">
-        <v>511.2431285377328</v>
+        <v>508.1956426674561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>498.5400085449219</v>
+      </c>
+      <c r="C8" t="n">
         <v>503.4800109863281</v>
       </c>
-      <c r="C8" t="n">
-        <v>503.3431878397043</v>
-      </c>
       <c r="D8" t="n">
-        <v>501.928050791231</v>
+        <v>505.0552318309559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>500.0650024414062</v>
+      </c>
+      <c r="C9" t="n">
         <v>498.5400085449219</v>
       </c>
-      <c r="C9" t="n">
-        <v>511.67046808478</v>
-      </c>
       <c r="D9" t="n">
-        <v>488.3894956163101</v>
+        <v>514.9930552887106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>500.2749938964844</v>
+      </c>
+      <c r="C10" t="n">
         <v>500.0650024414062</v>
       </c>
-      <c r="C10" t="n">
-        <v>501.3756374403314</v>
-      </c>
       <c r="D10" t="n">
-        <v>484.0071044315835</v>
+        <v>515.8148026627798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>500.9150085449219</v>
+      </c>
+      <c r="C11" t="n">
         <v>500.2749938964844</v>
       </c>
-      <c r="C11" t="n">
-        <v>493.5072040534204</v>
-      </c>
       <c r="D11" t="n">
-        <v>513.594197673636</v>
+        <v>487.5638192880039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>501.3900146484375</v>
+      </c>
+      <c r="C12" t="n">
         <v>500.9150085449219</v>
       </c>
-      <c r="C12" t="n">
-        <v>503.2233380661588</v>
-      </c>
       <c r="D12" t="n">
-        <v>491.2288044605145</v>
+        <v>517.9709313178091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>501.5499877929688</v>
+      </c>
+      <c r="C13" t="n">
         <v>501.3900146484375</v>
       </c>
-      <c r="C13" t="n">
-        <v>495.4719578759887</v>
-      </c>
       <c r="D13" t="n">
-        <v>510.2212886851031</v>
+        <v>497.8013294701834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>501.5199890136719</v>
+      </c>
+      <c r="C14" t="n">
         <v>501.5499877929688</v>
       </c>
-      <c r="C14" t="n">
-        <v>497.5339719555346</v>
-      </c>
       <c r="D14" t="n">
-        <v>522.0523358114719</v>
+        <v>504.1304629740764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="C15" t="n">
         <v>501.5199890136719</v>
       </c>
-      <c r="C15" t="n">
-        <v>511.103697705759</v>
-      </c>
       <c r="D15" t="n">
-        <v>489.284552104627</v>
+        <v>506.606505034066</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>502.7900085449219</v>
+      </c>
+      <c r="C16" t="n">
         <v>501.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>500.5505645604179</v>
-      </c>
       <c r="D16" t="n">
-        <v>504.072585629082</v>
+        <v>498.8253337325588</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>504.7099914550781</v>
+      </c>
+      <c r="C17" t="n">
         <v>502.7900085449219</v>
       </c>
-      <c r="C17" t="n">
-        <v>503.3484498881105</v>
-      </c>
       <c r="D17" t="n">
-        <v>494.6300829585145</v>
+        <v>484.770510397758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>504.5450134277344</v>
+      </c>
+      <c r="C18" t="n">
         <v>504.7099914550781</v>
       </c>
-      <c r="C18" t="n">
-        <v>510.5958816377862</v>
-      </c>
       <c r="D18" t="n">
-        <v>485.2729229952496</v>
+        <v>498.821212957596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>504.2799987792969</v>
+      </c>
+      <c r="C19" t="n">
         <v>504.5450134277344</v>
       </c>
-      <c r="C19" t="n">
-        <v>500.8961183605767</v>
-      </c>
       <c r="D19" t="n">
-        <v>518.3767677154299</v>
+        <v>511.142941753954</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>503.4028930664062</v>
+      </c>
+      <c r="C20" t="n">
         <v>504.2799987792969</v>
       </c>
-      <c r="C20" t="n">
-        <v>511.4565237483738</v>
-      </c>
       <c r="D20" t="n">
-        <v>505.4296197952532</v>
+        <v>507.0127189260152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>503.1700134277344</v>
+      </c>
+      <c r="C21" t="n">
         <v>503.4028930664062</v>
       </c>
-      <c r="C21" t="n">
-        <v>510.1698713083439</v>
-      </c>
       <c r="D21" t="n">
-        <v>504.2527083170497</v>
+        <v>500.3138399580718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>501.5499877929688</v>
+      </c>
+      <c r="C22" t="n">
         <v>503.1700134277344</v>
       </c>
-      <c r="C22" t="n">
-        <v>503.1855110513483</v>
-      </c>
       <c r="D22" t="n">
-        <v>509.872280936291</v>
+        <v>487.6974701485398</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>502.9649963378906</v>
+      </c>
+      <c r="C23" t="n">
         <v>501.5499877929688</v>
       </c>
-      <c r="C23" t="n">
-        <v>506.2389060754525</v>
-      </c>
       <c r="D23" t="n">
-        <v>504.3056730591577</v>
+        <v>491.515116754712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>502.4800109863281</v>
+      </c>
+      <c r="C24" t="n">
         <v>502.9649963378906</v>
       </c>
-      <c r="C24" t="n">
-        <v>500.6450328784573</v>
-      </c>
       <c r="D24" t="n">
-        <v>514.0437255493822</v>
+        <v>508.1424275296509</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>502.7200012207031</v>
+      </c>
+      <c r="C25" t="n">
         <v>502.4800109863281</v>
       </c>
-      <c r="C25" t="n">
-        <v>502.3001700213798</v>
-      </c>
       <c r="D25" t="n">
-        <v>490.8548084583654</v>
+        <v>507.6075053080272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>502.8999938964844</v>
+      </c>
+      <c r="C26" t="n">
         <v>502.7200012207031</v>
       </c>
-      <c r="C26" t="n">
-        <v>497.0689672712411</v>
-      </c>
       <c r="D26" t="n">
-        <v>512.0563889635582</v>
+        <v>516.8012665661424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>502.9700012207031</v>
+      </c>
+      <c r="C27" t="n">
         <v>502.8999938964844</v>
       </c>
-      <c r="C27" t="n">
-        <v>499.1707536767625</v>
-      </c>
       <c r="D27" t="n">
-        <v>509.8653514170591</v>
+        <v>500.26636444873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>502.9400024414062</v>
+      </c>
+      <c r="C28" t="n">
         <v>502.9700012207031</v>
       </c>
-      <c r="C28" t="n">
-        <v>504.0801641167601</v>
-      </c>
       <c r="D28" t="n">
-        <v>507.5321586404982</v>
+        <v>512.6847099647705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>505.6499938964844</v>
+      </c>
+      <c r="C29" t="n">
         <v>502.9400024414062</v>
       </c>
-      <c r="C29" t="n">
-        <v>514.2640573206112</v>
-      </c>
       <c r="D29" t="n">
-        <v>497.059023532768</v>
+        <v>510.0913777821144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>507.2799987792969</v>
+      </c>
+      <c r="C30" t="n">
         <v>505.6499938964844</v>
       </c>
-      <c r="C30" t="n">
-        <v>511.9880904185924</v>
-      </c>
       <c r="D30" t="n">
-        <v>487.8803350986425</v>
+        <v>504.6393796146909</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>507.3200073242188</v>
+      </c>
+      <c r="C31" t="n">
         <v>507.2799987792969</v>
       </c>
-      <c r="C31" t="n">
-        <v>514.5135274302964</v>
-      </c>
       <c r="D31" t="n">
-        <v>525.3728625221634</v>
+        <v>500.4710672097632</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>506.8699951171875</v>
+      </c>
+      <c r="C32" t="n">
         <v>507.3200073242188</v>
       </c>
-      <c r="C32" t="n">
-        <v>505.2546042944749</v>
-      </c>
       <c r="D32" t="n">
-        <v>504.4657288718658</v>
+        <v>511.9772331720771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="C33" t="n">
         <v>506.8699951171875</v>
       </c>
-      <c r="C33" t="n">
-        <v>511.3269611665629</v>
-      </c>
       <c r="D33" t="n">
-        <v>510.2093385388508</v>
+        <v>510.2332390427385</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>506.5799865722656</v>
+      </c>
+      <c r="C34" t="n">
         <v>507.9500122070312</v>
       </c>
-      <c r="C34" t="n">
-        <v>505.8935931472403</v>
-      </c>
       <c r="D34" t="n">
-        <v>504.6099974863421</v>
+        <v>484.489156672649</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>505.6300048828125</v>
+      </c>
+      <c r="C35" t="n">
         <v>506.5799865722656</v>
       </c>
-      <c r="C35" t="n">
-        <v>510.6498751920813</v>
-      </c>
       <c r="D35" t="n">
-        <v>505.5043497721881</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>505.6300048828125</v>
-      </c>
-      <c r="C36" t="n">
-        <v>503.3698559662912</v>
-      </c>
-      <c r="D36" t="n">
-        <v>524.4002247586513</v>
+        <v>506.6558908424671</v>
       </c>
     </row>
   </sheetData>
